--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori4/123/word_level_predictions_123.xlsx
@@ -4454,470 +4454,470 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>4</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>3</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>5</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>3</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>6</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>3</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>7</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>3</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" t="n">
         <v>8</v>
       </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>3</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>9</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>3</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>10</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>3</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>11</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>3</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>12</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" t="n">
         <v>0</v>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>4</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>4</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7753,237 +7753,237 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>7</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>10</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>7</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>installation</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>11</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>7</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>12</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>7</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>13</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>installation</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -10221,57 +10221,57 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12046,730 +12046,730 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>12</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>16</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>12</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>17</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>12</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>18</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>12</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>19</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>12</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>20</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>12</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>21</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>12</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>22</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>12</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>23</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>12</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>24</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>12</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>25</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>12</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>26</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>12</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>27</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>12</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>28</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>12</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>29</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14646,158 +14646,158 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>15</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
+      <c r="D274" t="n">
         <v>4</v>
       </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
+      <c r="F274" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>15</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>5</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>15</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>6</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15062,106 +15062,106 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" t="n">
         <v>16</v>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" t="n">
         <v>0</v>
       </c>
-      <c r="E282" s="2" t="inlineStr">
+      <c r="E282" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F282" s="2" t="inlineStr">
+      <c r="F282" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G282" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L282" s="2" t="inlineStr">
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" t="n">
         <v>16</v>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E283" s="2" t="inlineStr">
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F283" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G283" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori4/123/word_level_predictions_123.xlsx
@@ -4454,470 +4454,470 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>manned</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>manned</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>8</v>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>9</v>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>anti-collision</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>10</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>3</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>anti-collision</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>11</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="D92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>2</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>4</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -7777,213 +7777,213 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10197,81 +10197,81 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>11</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>3</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12046,730 +12046,730 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -14646,158 +14646,158 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
+      <c r="F274" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
+      <c r="F275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -15062,106 +15062,106 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D282" t="n">
-        <v>0</v>
-      </c>
-      <c r="E282" t="inlineStr">
+      <c r="D282" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
+      <c r="F282" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D283" t="n">
-        <v>1</v>
-      </c>
-      <c r="E283" t="inlineStr">
+      <c r="D283" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
